--- a/parameters/Task05_Param_Summary_With_Ranges.xlsx
+++ b/parameters/Task05_Param_Summary_With_Ranges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2137A20A-D957-E841-9FEC-0C238789FAED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{806A989D-463F-454D-AE9B-362EEFE229B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="3200" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="5660" yWindow="2340" windowWidth="26840" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Task05_Param_Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Pembro</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Yang16</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>I think it might be better to use Css = Dose/(CL*tau).  This way, it would apply more broadly even, not just mAbs!</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +507,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,11 +676,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,387 +1342,328 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="K11">
-        <v>1000</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="K12">
-        <v>1000</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>1.26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13">
+      <c r="J15" s="1">
         <f>1*24*60</f>
         <v>1440</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K15" s="3">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>1.26</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>40</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14">
+      <c r="J16" s="1">
         <f>1*24*60</f>
         <v>1440</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K16" s="3">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>0.03</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>7.6859999999999998E-2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15">
+      <c r="J17" s="1">
         <f>1*24*60</f>
         <v>1440</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K17" s="3">
         <f>1/7/4</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>1.26</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>1.26</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="J18" s="1">
         <f>1*24*60</f>
         <v>1440</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K18" s="3">
         <f>1/7/4</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17">
-        <v>1E-3</v>
-      </c>
-      <c r="K17">
-        <v>200</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18">
-        <v>1E-3</v>
-      </c>
-      <c r="K18">
-        <v>200</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>8.16</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>7.5</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>1.428571</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="C20">
-        <v>1313.28</v>
-      </c>
-      <c r="D20">
-        <v>1313.28</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <v>1.52E-2</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>3.456</v>
+        <v>8.16</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
+        <v>1.428571</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>116.64</v>
+        <v>1313.28</v>
       </c>
       <c r="D22">
-        <v>116.64</v>
+        <v>1313.28</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F22">
-        <v>1.3500000000000001E-3</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1717,7 +1671,77 @@
       <c r="H22">
         <v>5</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3.456</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>116.64</v>
+      </c>
+      <c r="D24">
+        <v>116.64</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
         <v>46</v>
       </c>
     </row>

--- a/parameters/Task05_Param_Summary_With_Ranges.xlsx
+++ b/parameters/Task05_Param_Summary_With_Ranges.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{806A989D-463F-454D-AE9B-362EEFE229B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4912BA-832D-D84C-AEEA-27009A82CA51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="2340" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="5660" yWindow="3220" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task05_Param_Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Pembro</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1/d</t>
   </si>
   <si>
-    <t>1 minute to 1 week (need reference)</t>
-  </si>
-  <si>
     <t>1 minute to 4 weeks</t>
   </si>
   <si>
@@ -187,12 +184,27 @@
   </si>
   <si>
     <t>I think it might be better to use Css = Dose/(CL*tau).  This way, it would apply more broadly even, not just mAbs!</t>
+  </si>
+  <si>
+    <t>1 minute to 1 day (need reference)</t>
+  </si>
+  <si>
+    <t>Kss_DT</t>
+  </si>
+  <si>
+    <t>Kss_TL</t>
+  </si>
+  <si>
+    <t>1/Ms</t>
+  </si>
+  <si>
+    <t>Yang16 - 1e6 for mAb, but maybe 1e8 for something smaller (like blino)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -676,12 +688,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,18 +1050,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="237" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="13" max="13" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1115,7 +1129,7 @@
         <v>3.71</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1144,7 +1158,7 @@
         <v>5.444744E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1173,7 +1187,7 @@
         <v>5.8550720000000001E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1289,7 +1303,7 @@
         <v>9.5270270000000004</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1318,7 +1332,7 @@
         <v>2.47973</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1344,10 +1358,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1426,14 +1440,13 @@
         <v>1440</v>
       </c>
       <c r="K15" s="3">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1469,14 +1482,13 @@
         <v>1440</v>
       </c>
       <c r="K16" s="3">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1519,7 +1531,7 @@
         <v>39</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1555,22 +1567,21 @@
         <v>1440</v>
       </c>
       <c r="K18" s="3">
-        <f>1/7/4</f>
-        <v>3.5714285714285712E-2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>41</v>
+      <c r="M18" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1">
         <v>1E-3</v>
@@ -1582,15 +1593,15 @@
         <v>37</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1">
         <v>1E-3</v>
@@ -1602,7 +1613,7 @@
         <v>37</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1636,14 +1647,14 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="1">
-        <v>100</v>
+      <c r="K21" s="6">
+        <v>10000</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1677,14 +1688,14 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
-        <v>100</v>
+      <c r="K22" s="6">
+        <v>10000</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1713,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1742,7 +1753,26 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K26" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K27" s="5">
+        <f>K26/1000000000*60*60*24</f>
+        <v>86.399999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K29" s="5">
+        <v>100000000</v>
       </c>
     </row>
   </sheetData>
